--- a/xlsx/t.xlsx
+++ b/xlsx/t.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="555" windowWidth="28800" windowHeight="16095" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="555" windowWidth="28800" windowHeight="16095" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="theme_info" sheetId="9" r:id="rId1"/>
@@ -554,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
@@ -1262,7 +1262,7 @@
         <v>130301</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1300,5 +1300,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>